--- a/KorrelationHSV.xlsx
+++ b/KorrelationHSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/OpenData-HSV-Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxbl\OneDrive\Desktop\OpenData-HSV-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD260814-AA18-B943-AEF2-074A1A0F1370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFB710-2D86-421C-84A3-D783CDC6833A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14500" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14490" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -251,7 +251,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -270,48 +270,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -615,42 +573,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -724,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +756,7 @@
         <v>-0.21514629301708921</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,7 +830,7 @@
         <v>5.480534474815401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -946,7 +904,7 @@
         <v>-8.4125517052417401E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +978,7 @@
         <v>-8.9115266222620587E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1052,7 @@
         <v>-0.17333350801580161</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1126,7 @@
         <v>-0.2280556249670653</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1200,7 @@
         <v>-0.1636142203595492</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1274,7 @@
         <v>-0.24129040081287431</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1348,7 @@
         <v>0.18521630404300701</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1422,7 @@
         <v>-0.15036421216451851</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1496,7 @@
         <v>-0.21186241106074241</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1570,7 @@
         <v>-4.1711020585624127E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1644,7 @@
         <v>-5.6443586593588217E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1718,7 @@
         <v>0.1109775069969513</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1792,7 @@
         <v>-0.1409174687738495</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1908,7 +1866,7 @@
         <v>0.27028582670665668</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1968,7 +1926,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +1986,7 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2046,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2148,7 +2106,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2208,7 +2166,7 @@
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2268,7 +2226,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2286,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
@@ -2522,10 +2480,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
@@ -2534,7 +2492,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
@@ -2543,10 +2501,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
@@ -2555,24 +2513,24 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.1</v>
       </c>
@@ -2588,7 +2546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.3</v>
       </c>
@@ -2604,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.5</v>
       </c>
